--- a/outputs-GTDB-r202/g__Phil12.xlsx
+++ b/outputs-GTDB-r202/g__Phil12.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>s__Phil12 sp900315335</t>
+          <t>s__Phil12 sp900315335(reject)</t>
         </is>
       </c>
     </row>
